--- a/webapp/static/documents/template.xlsx
+++ b/webapp/static/documents/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Transcend/cfsys/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Transcend/研究生/研二上/文件属性管理系统/cfsys/webapp/static/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{170C51B2-30A9-6B43-B984-311A7BB97EB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1EF4BA-8D2D-214E-84F0-A48A120E39C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14080" xr2:uid="{CB02C2DC-10FA-8145-95D5-53924242BE52}"/>
   </bookViews>
@@ -53,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>过去三年销售数量（万元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>过去一年销售数量（套/件/组）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -98,6 +94,10 @@
   <si>
     <t>T
 （技术形态）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过去三年销售额（万元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2759F6E-6FCD-FF45-B48F-B08C8A5A579E}">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -550,10 +550,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -565,31 +565,31 @@
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>5</v>

--- a/webapp/static/documents/template.xlsx
+++ b/webapp/static/documents/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PycharmProjects\cfsys1\webapp\static\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11544E4C-65F0-4433-96C5-0424E8C282DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C73A5C-9296-4FFC-9C9C-BC3DBFC7A245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CB02C2DC-10FA-8145-95D5-53924242BE52}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22584" windowHeight="11316" xr2:uid="{CB02C2DC-10FA-8145-95D5-53924242BE52}"/>
   </bookViews>
   <sheets>
     <sheet name="产品信息页" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="192">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -91,11 +91,6 @@
   <si>
     <t>I
 （自主度）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B
-（业务类别）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1618,7 +1613,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1811,6 +1806,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1836,13 +1840,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2162,78 +2160,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2759F6E-6FCD-FF45-B48F-B08C8A5A579E}">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="7" width="10.81640625" style="76"/>
-    <col min="8" max="8" width="20.81640625" style="76" customWidth="1"/>
-    <col min="9" max="9" width="26.1796875" style="76" customWidth="1"/>
-    <col min="10" max="10" width="22" style="76" customWidth="1"/>
-    <col min="11" max="11" width="26.36328125" style="76" customWidth="1"/>
-    <col min="12" max="12" width="13" style="76" customWidth="1"/>
-    <col min="13" max="13" width="13.1796875" style="76" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" style="76" customWidth="1"/>
-    <col min="15" max="16" width="13.6328125" style="76" customWidth="1"/>
-    <col min="17" max="17" width="16.6328125" style="76" customWidth="1"/>
-    <col min="18" max="16384" width="10.81640625" style="76"/>
+    <col min="1" max="7" width="10.81640625" style="68"/>
+    <col min="8" max="8" width="20.81640625" style="68" customWidth="1"/>
+    <col min="9" max="9" width="26.1796875" style="68" customWidth="1"/>
+    <col min="10" max="10" width="22" style="68" customWidth="1"/>
+    <col min="11" max="11" width="26.36328125" style="68" customWidth="1"/>
+    <col min="12" max="12" width="13" style="68" customWidth="1"/>
+    <col min="13" max="13" width="13.1796875" style="68" customWidth="1"/>
+    <col min="14" max="14" width="14.1796875" style="68" customWidth="1"/>
+    <col min="15" max="16" width="13.6328125" style="68" customWidth="1"/>
+    <col min="17" max="17" width="16.6328125" style="68" customWidth="1"/>
+    <col min="18" max="16384" width="10.81640625" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="74" customFormat="1">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:18" s="66" customFormat="1">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="75" t="s">
+      <c r="F1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="75" t="s">
+      <c r="G1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="75" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" s="75" t="s">
+      <c r="J1" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="77" t="s">
+        <v>186</v>
+      </c>
+      <c r="P1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="75" t="s">
+      <c r="R1" s="67" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2276,157 +2274,157 @@
   <sheetData>
     <row r="1" spans="1:27" s="10" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="73.8" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AA2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="24" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="53.4" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="9"/>
     </row>
     <row r="5" spans="1:27" ht="46.8" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="32.4" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="33.6" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="39.6" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="40.799999999999997" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="38.4" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="45" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="27.6" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="22.2" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="22.8" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="23.4" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="22.2" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="21.6" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="23.4" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2479,25 +2477,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" customHeight="1">
-      <c r="A1" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="A1" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="22.95" customHeight="1">
       <c r="A2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="15" t="s">
         <v>51</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="111.45" customHeight="1">
@@ -2505,57 +2503,57 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="D4" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="37.950000000000003" customHeight="1">
-      <c r="A5" s="67"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="70"/>
+      <c r="B5" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="D5" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="70"/>
-      <c r="C6" s="72"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="25.05" customHeight="1">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>64</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="93.45" customHeight="1">
@@ -2563,49 +2561,49 @@
         <v>2</v>
       </c>
       <c r="B8" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="D8" s="32" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="23" t="s">
         <v>70</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.95" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="28.8">
       <c r="A11" s="24"/>
       <c r="B11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>76</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.55" customHeight="1">
@@ -2613,130 +2611,130 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>79</v>
       </c>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1">
       <c r="A13" s="34"/>
       <c r="B13" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="36" t="s">
         <v>80</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>81</v>
       </c>
       <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" ht="90" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="D14" s="23" t="s">
         <v>83</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="61.95" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="D15" s="23" t="s">
         <v>86</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" customHeight="1">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="D16" s="23" t="s">
         <v>89</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="54.45" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="38" t="s">
         <v>91</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>92</v>
       </c>
       <c r="D17" s="23"/>
       <c r="F17" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="40" t="s">
         <v>93</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="D18" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="F18" s="39" t="s">
         <v>97</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>98</v>
       </c>
       <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="88.5" customHeight="1">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="38" t="s">
         <v>99</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>100</v>
       </c>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:7" ht="96.45" customHeight="1">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="D20" s="23" t="s">
         <v>102</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="38" t="s">
         <v>104</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>105</v>
       </c>
       <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="38" t="s">
         <v>106</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>107</v>
       </c>
       <c r="D22" s="23"/>
       <c r="F22" s="41"/>
@@ -2745,10 +2743,10 @@
     <row r="23" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A23" s="20"/>
       <c r="B23" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" s="38" t="s">
         <v>108</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>109</v>
       </c>
       <c r="D23" s="23"/>
       <c r="F23" s="41"/>
@@ -2757,10 +2755,10 @@
     <row r="24" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A24" s="20"/>
       <c r="B24" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>111</v>
       </c>
       <c r="D24" s="23"/>
       <c r="F24" s="41"/>
@@ -2769,10 +2767,10 @@
     <row r="25" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A25" s="20"/>
       <c r="B25" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="38" t="s">
         <v>112</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>113</v>
       </c>
       <c r="D25" s="23"/>
       <c r="F25" s="41"/>
@@ -2781,154 +2779,154 @@
     <row r="26" spans="1:7" ht="14.4">
       <c r="A26" s="34"/>
       <c r="B26" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>114</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>115</v>
       </c>
       <c r="D26" s="43"/>
     </row>
     <row r="27" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A27" s="20"/>
       <c r="B27" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C27" s="44" t="s">
+      <c r="D27" s="23" t="s">
         <v>117</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="31.05" customHeight="1">
       <c r="A28" s="20"/>
       <c r="B28" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="D28" s="23" t="s">
         <v>120</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.4">
       <c r="A29" s="20"/>
       <c r="B29" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="44" t="s">
         <v>122</v>
-      </c>
-      <c r="C29" s="44" t="s">
-        <v>123</v>
       </c>
       <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:7" ht="14.4">
       <c r="A30" s="20"/>
       <c r="B30" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="44" t="s">
         <v>124</v>
-      </c>
-      <c r="C30" s="44" t="s">
-        <v>125</v>
       </c>
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:7" ht="14.4">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="26" t="s">
         <v>126</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>127</v>
       </c>
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:7" ht="14.4">
       <c r="A32" s="20"/>
       <c r="B32" s="21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:6" ht="14.4">
       <c r="A33" s="34"/>
       <c r="B33" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>129</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>130</v>
       </c>
       <c r="D33" s="43"/>
     </row>
     <row r="34" spans="1:6" s="28" customFormat="1" ht="14.4">
       <c r="A34" s="45"/>
       <c r="B34" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="46" t="s">
         <v>131</v>
-      </c>
-      <c r="C34" s="46" t="s">
-        <v>132</v>
       </c>
       <c r="D34" s="47"/>
     </row>
     <row r="35" spans="1:6" s="28" customFormat="1" ht="14.4">
       <c r="A35" s="45"/>
       <c r="B35" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="46" t="s">
         <v>133</v>
-      </c>
-      <c r="C35" s="46" t="s">
-        <v>134</v>
       </c>
       <c r="D35" s="47"/>
     </row>
     <row r="36" spans="1:6" s="28" customFormat="1" ht="14.4">
       <c r="A36" s="45"/>
       <c r="B36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="46" t="s">
         <v>135</v>
-      </c>
-      <c r="C36" s="46" t="s">
-        <v>136</v>
       </c>
       <c r="D36" s="47"/>
     </row>
     <row r="37" spans="1:6" s="28" customFormat="1" ht="14.4">
       <c r="A37" s="45"/>
       <c r="B37" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="46" t="s">
         <v>137</v>
-      </c>
-      <c r="C37" s="46" t="s">
-        <v>138</v>
       </c>
       <c r="D37" s="47"/>
     </row>
     <row r="38" spans="1:6" s="28" customFormat="1" ht="14.4">
       <c r="A38" s="45"/>
       <c r="B38" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" s="25" t="s">
         <v>139</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>140</v>
       </c>
       <c r="D38" s="47"/>
     </row>
     <row r="39" spans="1:6" ht="14.4">
       <c r="A39" s="34"/>
       <c r="B39" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>141</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>142</v>
       </c>
       <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:6" ht="14.4">
       <c r="A40" s="20"/>
       <c r="B40" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="46" t="s">
         <v>143</v>
-      </c>
-      <c r="C40" s="46" t="s">
-        <v>144</v>
       </c>
       <c r="D40" s="23"/>
       <c r="F40" s="48"/>
@@ -2936,72 +2934,72 @@
     <row r="41" spans="1:6" ht="14.4">
       <c r="A41" s="20"/>
       <c r="B41" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="25" t="s">
         <v>145</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>146</v>
       </c>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:6" ht="14.4">
       <c r="A42" s="20"/>
       <c r="B42" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="25" t="s">
         <v>147</v>
-      </c>
-      <c r="C42" s="25" t="s">
-        <v>148</v>
       </c>
       <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:6" ht="14.4">
       <c r="A43" s="20"/>
       <c r="B43" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C43" s="49" t="s">
         <v>149</v>
-      </c>
-      <c r="C43" s="49" t="s">
-        <v>150</v>
       </c>
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:6" ht="14.4">
       <c r="A44" s="20"/>
       <c r="B44" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="50" t="s">
         <v>151</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>152</v>
       </c>
       <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:6" ht="14.4">
       <c r="A45" s="20"/>
       <c r="B45" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="27" customHeight="1">
       <c r="A46" s="34"/>
       <c r="B46" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="51" t="s">
+      <c r="D46" s="52" t="s">
         <v>155</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.4">
       <c r="A47" s="20"/>
       <c r="B47" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D47" s="23"/>
     </row>
@@ -3010,120 +3008,120 @@
         <v>4</v>
       </c>
       <c r="B48" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="31" t="s">
         <v>158</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>159</v>
       </c>
       <c r="D48" s="54"/>
     </row>
     <row r="49" spans="1:16384" ht="14.4">
       <c r="A49" s="55"/>
       <c r="B49" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="57" t="s">
         <v>160</v>
-      </c>
-      <c r="C49" s="57" t="s">
-        <v>161</v>
       </c>
       <c r="D49" s="58"/>
     </row>
     <row r="50" spans="1:16384" ht="14.4">
       <c r="A50" s="59"/>
       <c r="B50" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="60" t="s">
         <v>162</v>
-      </c>
-      <c r="C50" s="60" t="s">
-        <v>163</v>
       </c>
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:16384" ht="14.4">
       <c r="A51" s="59"/>
       <c r="B51" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="60" t="s">
         <v>164</v>
-      </c>
-      <c r="C51" s="60" t="s">
-        <v>165</v>
       </c>
       <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:16384" ht="14.4">
       <c r="A52" s="59"/>
       <c r="B52" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="60" t="s">
         <v>166</v>
-      </c>
-      <c r="C52" s="60" t="s">
-        <v>167</v>
       </c>
       <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:16384" ht="14.4">
       <c r="A53" s="59"/>
       <c r="B53" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="60" t="s">
         <v>168</v>
-      </c>
-      <c r="C53" s="60" t="s">
-        <v>169</v>
       </c>
       <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:16384" ht="14.4">
       <c r="A54" s="55"/>
       <c r="B54" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" s="57" t="s">
         <v>170</v>
-      </c>
-      <c r="C54" s="57" t="s">
-        <v>171</v>
       </c>
       <c r="D54" s="58"/>
     </row>
     <row r="55" spans="1:16384" ht="14.4">
       <c r="A55" s="59"/>
       <c r="B55" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="60" t="s">
         <v>172</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>173</v>
       </c>
       <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:16384" ht="14.4">
       <c r="A56" s="59"/>
       <c r="B56" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="60" t="s">
         <v>174</v>
-      </c>
-      <c r="C56" s="60" t="s">
-        <v>175</v>
       </c>
       <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:16384" ht="14.4">
       <c r="A57" s="55"/>
       <c r="B57" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C57" s="57" t="s">
         <v>176</v>
-      </c>
-      <c r="C57" s="57" t="s">
-        <v>177</v>
       </c>
       <c r="D57" s="58"/>
     </row>
     <row r="58" spans="1:16384" ht="14.4">
       <c r="A58" s="59"/>
       <c r="B58" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C58" s="60" t="s">
         <v>178</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>179</v>
       </c>
       <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:16384" ht="14.4">
       <c r="A59" s="55"/>
       <c r="B59" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="57" t="s">
         <v>180</v>
-      </c>
-      <c r="C59" s="57" t="s">
-        <v>181</v>
       </c>
       <c r="D59" s="58"/>
       <c r="E59" s="55"/>
@@ -19510,32 +19508,32 @@
     <row r="60" spans="1:16384" ht="14.4">
       <c r="A60" s="59"/>
       <c r="B60" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:16384">
       <c r="A61" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" s="76" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="76"/>
     </row>
     <row r="62" spans="1:16384">
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="76"/>
     </row>
     <row r="63" spans="1:16384">
-      <c r="B63" s="73"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/webapp/static/documents/template.xlsx
+++ b/webapp/static/documents/template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\PycharmProjects\cfsys1\webapp\static\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C73A5C-9296-4FFC-9C9C-BC3DBFC7A245}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FABF2C-E3A1-4414-AE0C-6A7824295DB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="22584" windowHeight="11316" xr2:uid="{CB02C2DC-10FA-8145-95D5-53924242BE52}"/>
+    <workbookView xWindow="24" yWindow="192" windowWidth="22848" windowHeight="12060" xr2:uid="{CB02C2DC-10FA-8145-95D5-53924242BE52}"/>
   </bookViews>
   <sheets>
-    <sheet name="产品信息页" sheetId="1" r:id="rId1"/>
+    <sheet name="产品信息页（ 标红星为必填项） " sheetId="1" r:id="rId1"/>
     <sheet name="填表说明" sheetId="2" r:id="rId2"/>
     <sheet name="缩略词表" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -32,17 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="192">
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="193">
   <si>
     <t>旧产品名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品描述</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -51,9 +43,6 @@
   <si>
     <t>市场案例</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
   </si>
   <si>
     <t>过去一年销售额（万元）</t>
@@ -68,34 +57,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>联系人及联系方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>是否重叠</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>目标行业</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>M
-（成熟度）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>I
-（自主度）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>T
-（技术形态）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1296,12 +1262,232 @@
     <t>参考缩略词表的缩略词列，填写产品技术形态，格式：T**，例：T11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产品名称</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>产品描述</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公司</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M（成熟度）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I（自主度）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B（业务领域）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T（技术形态）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>联系人及联系方式</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注（包括附件清单）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1503,6 +1689,42 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1613,7 +1835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1839,8 +2061,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2160,8 +2388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2759F6E-6FCD-FF45-B48F-B08C8A5A579E}">
   <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="15.6"/>
@@ -2176,68 +2404,69 @@
     <col min="14" max="14" width="14.1796875" style="68" customWidth="1"/>
     <col min="15" max="16" width="13.6328125" style="68" customWidth="1"/>
     <col min="17" max="17" width="16.6328125" style="68" customWidth="1"/>
-    <col min="18" max="16384" width="10.81640625" style="68"/>
+    <col min="18" max="18" width="18.90625" style="68" customWidth="1"/>
+    <col min="19" max="16384" width="10.81640625" style="68"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="66" customFormat="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="77" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="C1" s="77" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="G1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="67" t="s">
+      <c r="H1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="67" t="s">
+      <c r="I1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="67" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="67" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K1" s="67" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="66" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="P1" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="67" t="s">
-        <v>9</v>
+      <c r="M1" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="N1" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="P1" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q1" s="79" t="s">
+        <v>191</v>
       </c>
       <c r="R1" s="67" t="s">
-        <v>5</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations count="6">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="销售额仅支持数字格式" prompt="请输入数字" sqref="H1:H1048576 J1:J1048576" xr:uid="{D95CB234-00F8-465A-A30D-4BC9C44D8E3D}">
       <formula1>0</formula1>
     </dataValidation>
@@ -2247,10 +2476,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请选择是或否" prompt="请选择是或否" sqref="D1:D1048576" xr:uid="{716C1120-0D28-4C37-8D32-4152E65A5698}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请从下拉列表选择公司" prompt="请选择" sqref="L1:L1048576" xr:uid="{86C0AAF5-3913-47F5-B2C3-7A99650467E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请从下拉列表选择公司" prompt="请选择" sqref="L2:L1048576" xr:uid="{86C0AAF5-3913-47F5-B2C3-7A99650467E2}">
       <formula1>"股份,医疗,科技,精一,浙子,科威,柏克"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="请列出附件内容清单" sqref="R1:R1048576" xr:uid="{0DE89C8D-A25A-4FD4-8948-D3CD94D5C257}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请从下拉列表选择公司" prompt="请选择" sqref="L1" xr:uid="{EE67E2A2-2BAC-4718-883B-B439504FFC90}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2261,7 +2491,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2274,157 +2504,157 @@
   <sheetData>
     <row r="1" spans="1:27" s="10" customFormat="1">
       <c r="A1" s="11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="73.8" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AA2" s="9"/>
     </row>
     <row r="3" spans="1:27" ht="24" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="AA3" s="9"/>
     </row>
     <row r="4" spans="1:27" ht="53.4" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AA4" s="9"/>
     </row>
     <row r="5" spans="1:27" ht="46.8" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="32.4" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="33.6" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="39.6" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="40.200000000000003" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="40.799999999999997" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="38.4" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="45" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="27.6" customHeight="1">
       <c r="A13" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="22.2" customHeight="1">
       <c r="A14" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="22.8" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="23.4" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="22.2" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="21.6" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="23.4" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2478,7 +2708,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="38.25" customHeight="1">
       <c r="A1" s="69" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -2486,16 +2716,16 @@
     </row>
     <row r="2" spans="1:4" ht="22.95" customHeight="1">
       <c r="A2" s="14" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="111.45" customHeight="1">
@@ -2503,37 +2733,37 @@
         <v>1</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="40.049999999999997" customHeight="1">
       <c r="A4" s="20"/>
       <c r="B4" s="21" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="37.950000000000003" customHeight="1">
       <c r="A5" s="70"/>
       <c r="B5" s="72" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1">
@@ -2541,19 +2771,19 @@
       <c r="B6" s="73"/>
       <c r="C6" s="75"/>
       <c r="D6" s="23" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="28" customFormat="1" ht="25.05" customHeight="1">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="93.45" customHeight="1">
@@ -2561,49 +2791,49 @@
         <v>2</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8">
       <c r="A9" s="20"/>
       <c r="B9" s="21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.95" customHeight="1">
       <c r="A10" s="20"/>
       <c r="B10" s="21" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="28" customFormat="1" ht="28.8">
       <c r="A11" s="24"/>
       <c r="B11" s="25" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17.55" customHeight="1">
@@ -2611,130 +2841,130 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:4" ht="21" customHeight="1">
       <c r="A13" s="34"/>
       <c r="B13" s="35" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" ht="90" customHeight="1">
       <c r="A14" s="20"/>
       <c r="B14" s="21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="61.95" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" customHeight="1">
       <c r="A16" s="20"/>
       <c r="B16" s="21" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="54.45" customHeight="1">
       <c r="A17" s="20"/>
       <c r="B17" s="21" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D17" s="23"/>
       <c r="F17" s="39" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G17" s="40" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A18" s="20"/>
       <c r="B18" s="21" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="88.5" customHeight="1">
       <c r="A19" s="20"/>
       <c r="B19" s="21" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:7" ht="96.45" customHeight="1">
       <c r="A20" s="20"/>
       <c r="B20" s="21" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A21" s="20"/>
       <c r="B21" s="21" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D21" s="23"/>
     </row>
     <row r="22" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D22" s="23"/>
       <c r="F22" s="41"/>
@@ -2743,10 +2973,10 @@
     <row r="23" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A23" s="20"/>
       <c r="B23" s="21" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D23" s="23"/>
       <c r="F23" s="41"/>
@@ -2755,10 +2985,10 @@
     <row r="24" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A24" s="20"/>
       <c r="B24" s="21" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D24" s="23"/>
       <c r="F24" s="41"/>
@@ -2767,10 +2997,10 @@
     <row r="25" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A25" s="20"/>
       <c r="B25" s="21" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D25" s="23"/>
       <c r="F25" s="41"/>
@@ -2779,154 +3009,154 @@
     <row r="26" spans="1:7" ht="14.4">
       <c r="A26" s="34"/>
       <c r="B26" s="35" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D26" s="43"/>
     </row>
     <row r="27" spans="1:7" ht="34.950000000000003" customHeight="1">
       <c r="A27" s="20"/>
       <c r="B27" s="21" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="31.05" customHeight="1">
       <c r="A28" s="20"/>
       <c r="B28" s="21" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.4">
       <c r="A29" s="20"/>
       <c r="B29" s="21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:7" ht="14.4">
       <c r="A30" s="20"/>
       <c r="B30" s="21" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:7" ht="14.4">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:7" ht="14.4">
       <c r="A32" s="20"/>
       <c r="B32" s="21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:6" ht="14.4">
       <c r="A33" s="34"/>
       <c r="B33" s="35" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D33" s="43"/>
     </row>
     <row r="34" spans="1:6" s="28" customFormat="1" ht="14.4">
       <c r="A34" s="45"/>
       <c r="B34" s="21" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C34" s="46" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D34" s="47"/>
     </row>
     <row r="35" spans="1:6" s="28" customFormat="1" ht="14.4">
       <c r="A35" s="45"/>
       <c r="B35" s="21" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D35" s="47"/>
     </row>
     <row r="36" spans="1:6" s="28" customFormat="1" ht="14.4">
       <c r="A36" s="45"/>
       <c r="B36" s="21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C36" s="46" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D36" s="47"/>
     </row>
     <row r="37" spans="1:6" s="28" customFormat="1" ht="14.4">
       <c r="A37" s="45"/>
       <c r="B37" s="21" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D37" s="47"/>
     </row>
     <row r="38" spans="1:6" s="28" customFormat="1" ht="14.4">
       <c r="A38" s="45"/>
       <c r="B38" s="21" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C38" s="25" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D38" s="47"/>
     </row>
     <row r="39" spans="1:6" ht="14.4">
       <c r="A39" s="34"/>
       <c r="B39" s="35" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:6" ht="14.4">
       <c r="A40" s="20"/>
       <c r="B40" s="21" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C40" s="46" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D40" s="23"/>
       <c r="F40" s="48"/>
@@ -2934,72 +3164,72 @@
     <row r="41" spans="1:6" ht="14.4">
       <c r="A41" s="20"/>
       <c r="B41" s="21" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C41" s="25" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:6" ht="14.4">
       <c r="A42" s="20"/>
       <c r="B42" s="21" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C42" s="25" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:6" ht="14.4">
       <c r="A43" s="20"/>
       <c r="B43" s="21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C43" s="49" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:6" ht="14.4">
       <c r="A44" s="20"/>
       <c r="B44" s="21" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:6" ht="14.4">
       <c r="A45" s="20"/>
       <c r="B45" s="21" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:6" ht="27" customHeight="1">
       <c r="A46" s="34"/>
       <c r="B46" s="35" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C46" s="51" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.4">
       <c r="A47" s="20"/>
       <c r="B47" s="21" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C47" s="53" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D47" s="23"/>
     </row>
@@ -3008,120 +3238,120 @@
         <v>4</v>
       </c>
       <c r="B48" s="30" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D48" s="54"/>
     </row>
     <row r="49" spans="1:16384" ht="14.4">
       <c r="A49" s="55"/>
       <c r="B49" s="56" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D49" s="58"/>
     </row>
     <row r="50" spans="1:16384" ht="14.4">
       <c r="A50" s="59"/>
       <c r="B50" s="21" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C50" s="60" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D50" s="23"/>
     </row>
     <row r="51" spans="1:16384" ht="14.4">
       <c r="A51" s="59"/>
       <c r="B51" s="59" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C51" s="60" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:16384" ht="14.4">
       <c r="A52" s="59"/>
       <c r="B52" s="59" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C52" s="60" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D52" s="23"/>
     </row>
     <row r="53" spans="1:16384" ht="14.4">
       <c r="A53" s="59"/>
       <c r="B53" s="59" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C53" s="60" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D53" s="23"/>
     </row>
     <row r="54" spans="1:16384" ht="14.4">
       <c r="A54" s="55"/>
       <c r="B54" s="55" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C54" s="57" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D54" s="58"/>
     </row>
     <row r="55" spans="1:16384" ht="14.4">
       <c r="A55" s="59"/>
       <c r="B55" s="21" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C55" s="60" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D55" s="23"/>
     </row>
     <row r="56" spans="1:16384" ht="14.4">
       <c r="A56" s="59"/>
       <c r="B56" s="59" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C56" s="60" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D56" s="23"/>
     </row>
     <row r="57" spans="1:16384" ht="14.4">
       <c r="A57" s="55"/>
       <c r="B57" s="55" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C57" s="57" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D57" s="58"/>
     </row>
     <row r="58" spans="1:16384" ht="14.4">
       <c r="A58" s="59"/>
       <c r="B58" s="21" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C58" s="60" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:16384" ht="14.4">
       <c r="A59" s="55"/>
       <c r="B59" s="55" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C59" s="57" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D59" s="58"/>
       <c r="E59" s="55"/>
@@ -19508,19 +19738,19 @@
     <row r="60" spans="1:16384" ht="14.4">
       <c r="A60" s="59"/>
       <c r="B60" s="59" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C60" s="60" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:16384">
       <c r="A61" s="62" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B61" s="76" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C61" s="76"/>
       <c r="D61" s="76"/>

--- a/webapp/static/documents/template.xlsx
+++ b/webapp/static/documents/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rong\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBBB103-B717-4201-B720-29C8936D2B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DFF9EA-F904-40CD-956F-21284C9CCD2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{CB02C2DC-10FA-8145-95D5-53924242BE52}"/>
   </bookViews>
@@ -2439,7 +2439,7 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="N225" sqref="N225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15"/>
@@ -2516,7 +2516,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="6">
+  <dataValidations xWindow="620" yWindow="528" count="5">
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="销售额仅支持数字格式" prompt="请输入数字" sqref="H1:H1048576 J1:J1048576" xr:uid="{D95CB234-00F8-465A-A30D-4BC9C44D8E3D}">
       <formula1>0</formula1>
     </dataValidation>
@@ -2526,11 +2526,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请选择是或否" prompt="请选择是或否" sqref="D1:D1048576" xr:uid="{716C1120-0D28-4C37-8D32-4152E65A5698}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请从下拉列表选择公司" prompt="请选择" sqref="L2:L1048576" xr:uid="{86C0AAF5-3913-47F5-B2C3-7A99650467E2}">
-      <formula1>"股份,医疗,科技,精一,浙子,科威,柏克"</formula1>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="请列出附件内容清单" sqref="R1:R1048576" xr:uid="{0DE89C8D-A25A-4FD4-8948-D3CD94D5C257}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L1048576" xr:uid="{D3216E8B-4E8B-43CF-84C0-477C137E1C72}">
+      <formula1>"长峰股份,长峰医疗分公司,长峰科技,航天精一,长峰科发,长峰科威,航天柏克,长峰计算机分公司,云南CY航天"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="请列出附件内容清单" sqref="R1:R1048576" xr:uid="{0DE89C8D-A25A-4FD4-8948-D3CD94D5C257}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" error="请从下拉列表选择公司" prompt="请选择" sqref="L1" xr:uid="{EE67E2A2-2BAC-4718-883B-B439504FFC90}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
